--- a/buliderBase/hidden_units/level.xlsx
+++ b/buliderBase/hidden_units/level.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Trap</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,10 @@
   </si>
   <si>
     <t>push trap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level 7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -405,7 +409,7 @@
     <col min="2" max="2" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,8 +419,11 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -426,8 +433,11 @@
       <c r="C2">
         <v>5</v>
       </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -437,8 +447,11 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -448,8 +461,11 @@
       <c r="C4">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -459,8 +475,11 @@
       <c r="C5">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -468,6 +487,9 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>4</v>
       </c>
     </row>
